--- a/xlttm/rule/rule_lamp.xlsx
+++ b/xlttm/rule/rule_lamp.xlsx
@@ -37,6 +37,9 @@
     <t xml:space="preserve">medium</t>
   </si>
   <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
     <t xml:space="preserve">far</t>
   </si>
   <si>
@@ -47,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">normal</t>
   </si>
   <si>
     <t xml:space="preserve">more_green</t>
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,11 +95,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,16 +139,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,11 +167,14 @@
   </sheetPr>
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E61" activeCellId="0" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -213,7 +207,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,10 +221,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,7 +235,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>2</v>
@@ -258,7 +252,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -275,10 +269,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>3</v>
@@ -292,7 +286,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>2</v>
@@ -309,13 +303,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,10 +320,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>3</v>
@@ -343,13 +337,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,13 +354,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,13 +371,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,7 +394,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,10 +425,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>2</v>
@@ -513,13 +507,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,13 +524,13 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,13 +541,13 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,13 +575,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>2</v>
@@ -615,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -632,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,10 +680,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>1</v>
@@ -713,8 +707,8 @@
       <c r="A32" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>1</v>
@@ -723,35 +717,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>2</v>
@@ -764,11 +758,11 @@
       <c r="A35" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>4</v>
@@ -781,28 +775,28 @@
       <c r="A36" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>9</v>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>2</v>
@@ -815,45 +809,45 @@
       <c r="A38" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>2</v>
@@ -866,11 +860,11 @@
       <c r="A41" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>4</v>
@@ -883,25 +877,25 @@
       <c r="A42" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>10</v>
@@ -910,15 +904,15 @@
         <v>2</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>10</v>
@@ -927,24 +921,24 @@
         <v>4</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>9</v>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>2</v>
@@ -1023,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
@@ -1040,13 +1034,13 @@
         <v>13</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +1051,7 @@
         <v>13</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>2</v>
@@ -1074,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,13 +1085,13 @@
         <v>13</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>2</v>
@@ -1125,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>4</v>
@@ -1142,13 +1136,13 @@
         <v>13</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>3</v>
@@ -1261,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>2</v>
@@ -1278,7 +1272,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>4</v>
@@ -1295,13 +1289,13 @@
         <v>14</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>2</v>
@@ -1329,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>4</v>
@@ -1346,10 +1340,10 @@
         <v>14</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>3</v>
@@ -1363,13 +1357,13 @@
         <v>14</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,13 +1374,13 @@
         <v>14</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,13 +1391,13 @@
         <v>14</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,10 +1445,10 @@
         <v>10</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/xlttm/rule/rule_lamp.xlsx
+++ b/xlttm/rule/rule_lamp.xlsx
@@ -167,13 +167,13 @@
   </sheetPr>
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E61" activeCellId="0" sqref="E61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1244,7 @@
         <v>6</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,7 +1346,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/xlttm/rule/rule_lamp.xlsx
+++ b/xlttm/rule/rule_lamp.xlsx
@@ -167,13 +167,13 @@
   </sheetPr>
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,7 +309,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/xlttm/rule/rule_lamp.xlsx
+++ b/xlttm/rule/rule_lamp.xlsx
@@ -37,10 +37,10 @@
     <t xml:space="preserve">medium</t>
   </si>
   <si>
-    <t xml:space="preserve">normal</t>
+    <t xml:space="preserve">far</t>
   </si>
   <si>
-    <t xml:space="preserve">far</t>
+    <t xml:space="preserve">normal</t>
   </si>
   <si>
     <t xml:space="preserve">red</t>
@@ -167,14 +167,11 @@
   </sheetPr>
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -207,7 +204,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -221,10 +218,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -272,7 +269,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>3</v>
@@ -323,7 +320,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>3</v>
@@ -343,7 +340,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,7 +357,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,10 +371,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,7 +391,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,10 +422,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,10 +473,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,10 +524,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,10 +626,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,10 +677,10 @@
         <v>10</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +688,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>1</v>
@@ -708,7 +705,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>1</v>
@@ -717,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,16 +722,16 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,7 +739,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>7</v>
@@ -759,7 +756,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>7</v>
@@ -776,16 +773,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +790,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>8</v>
@@ -810,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>8</v>
@@ -819,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,16 +824,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,7 +841,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>9</v>
@@ -861,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>9</v>
@@ -878,16 +875,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,7 +892,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>10</v>
@@ -904,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,7 +909,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>10</v>
@@ -921,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,16 +926,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,10 +1034,10 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,10 +1085,10 @@
         <v>8</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,10 +1136,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,10 +1187,10 @@
         <v>10</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,10 +1289,10 @@
         <v>7</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,10 +1340,10 @@
         <v>8</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,10 +1391,10 @@
         <v>9</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,10 +1442,10 @@
         <v>10</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
